--- a/data/trans_orig/P1412-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1412-Clase-trans_orig.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8281</v>
+        <v>6396</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006648973698895782</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0263343404651568</v>
+        <v>0.02034150862449316</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6327</v>
+        <v>6771</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002781555576295092</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00841665878527669</v>
+        <v>0.009007385402788398</v>
       </c>
     </row>
     <row r="5">
@@ -819,7 +819,7 @@
         <v>312363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306173</v>
+        <v>308058</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -828,7 +828,7 @@
         <v>0.9933510263011042</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9736656595348431</v>
+        <v>0.9796584913755069</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>749574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>745338</v>
+        <v>744894</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>751665</v>
@@ -849,7 +849,7 @@
         <v>0.9972184444237049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9915833412147234</v>
+        <v>0.9909926145972116</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4245</v>
+        <v>5222</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002464769831243429</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01013598562661815</v>
+        <v>0.01246883019583965</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5793</v>
+        <v>5187</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001363936467527479</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007654451986900094</v>
+        <v>0.006853437270209685</v>
       </c>
     </row>
     <row r="8">
@@ -1007,7 +1007,7 @@
         <v>417765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>414552</v>
+        <v>413575</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -1016,7 +1016,7 @@
         <v>0.9975352301687566</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9898640143733818</v>
+        <v>0.9875311698041603</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>755776</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>751015</v>
+        <v>751621</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>756808</v>
@@ -1050,7 +1050,7 @@
         <v>0.9986360635324725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9923455480131002</v>
+        <v>0.9931465627297903</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1145,19 +1145,19 @@
         <v>5411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1944</v>
+        <v>1878</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14319</v>
+        <v>14463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008597294930289776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003088748711711037</v>
+        <v>0.002984037004905257</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0227491179355423</v>
+        <v>0.02297786813727981</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1179,19 +1179,19 @@
         <v>5411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1883</v>
+        <v>1974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16016</v>
+        <v>14539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006083187924993186</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002116740902832465</v>
+        <v>0.002219364005262001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01800496062082946</v>
+        <v>0.01634441752650006</v>
       </c>
     </row>
     <row r="11">
@@ -1208,19 +1208,19 @@
         <v>624004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615096</v>
+        <v>614952</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627471</v>
+        <v>627537</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9914027050697102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9772508820644579</v>
+        <v>0.9770221318627204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9969112512882892</v>
+        <v>0.9970159629950947</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -1242,19 +1242,19 @@
         <v>884133</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>873528</v>
+        <v>875005</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>887661</v>
+        <v>887570</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9939168120750068</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9819950393791702</v>
+        <v>0.9836555824734999</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9978832590971675</v>
+        <v>0.997780635994738</v>
       </c>
     </row>
     <row r="12">
@@ -1346,19 +1346,19 @@
         <v>12193</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7178</v>
+        <v>6312</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20896</v>
+        <v>20333</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01052015514565268</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006193064330170326</v>
+        <v>0.005445807981215</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01802903888994453</v>
+        <v>0.01754346582447567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5075</v>
+        <v>5046</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001308528264928177</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006645011391340877</v>
+        <v>0.00660603132710692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1388,19 +1388,19 @@
         <v>13192</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7047</v>
+        <v>7768</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21924</v>
+        <v>22371</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006861081172049258</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003664859982200367</v>
+        <v>0.004040145613666056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01140196531984089</v>
+        <v>0.01163469560461924</v>
       </c>
     </row>
     <row r="14">
@@ -1417,19 +1417,19 @@
         <v>1146816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1138113</v>
+        <v>1138676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1151831</v>
+        <v>1152697</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9894798448543474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9819709611100559</v>
+        <v>0.9824565341755243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9938069356698297</v>
+        <v>0.9945541920187849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>708</v>
@@ -1438,7 +1438,7 @@
         <v>762776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>758700</v>
+        <v>758729</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>763775</v>
@@ -1447,7 +1447,7 @@
         <v>0.9986914717350718</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9933549886086591</v>
+        <v>0.9933939686728931</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1459,19 +1459,19 @@
         <v>1909592</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1900860</v>
+        <v>1900413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1915737</v>
+        <v>1915016</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9931389188279507</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9885980346801587</v>
+        <v>0.9883653043953807</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9963351400177994</v>
+        <v>0.9959598543863339</v>
       </c>
     </row>
     <row r="15">
@@ -1563,19 +1563,19 @@
         <v>4332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1141</v>
+        <v>1020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9908</v>
+        <v>10766</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008483306917888948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002235174861462348</v>
+        <v>0.001997446139352271</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01940474359313585</v>
+        <v>0.02108463728882625</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1584,19 +1584,19 @@
         <v>10877</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5318</v>
+        <v>5632</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18950</v>
+        <v>19693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01430735726723819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006994582143663598</v>
+        <v>0.00740792906809908</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0249257232267539</v>
+        <v>0.02590308242154383</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1605,19 +1605,19 @@
         <v>15209</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8961</v>
+        <v>8399</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25577</v>
+        <v>25620</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0119673833889742</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007051494301376911</v>
+        <v>0.006609153419893051</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02012582781128758</v>
+        <v>0.02015997242141537</v>
       </c>
     </row>
     <row r="17">
@@ -1634,19 +1634,19 @@
         <v>506264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>500688</v>
+        <v>499830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509455</v>
+        <v>509576</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9915166930821111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9805952564068641</v>
+        <v>0.9789153627111739</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9977648251385376</v>
+        <v>0.9980025538606477</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>692</v>
@@ -1655,19 +1655,19 @@
         <v>749369</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>741296</v>
+        <v>740553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>754928</v>
+        <v>754614</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9856926427327618</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.975074276773246</v>
+        <v>0.9740969175784561</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9930054178563364</v>
+        <v>0.9925920709319009</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1175</v>
@@ -1676,19 +1676,19 @@
         <v>1255634</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1245266</v>
+        <v>1245223</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1261882</v>
+        <v>1262444</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9880326166110258</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9798741721887123</v>
+        <v>0.9798400275785841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9929485056986229</v>
+        <v>0.9933908465801069</v>
       </c>
     </row>
     <row r="18">
@@ -1793,19 +1793,19 @@
         <v>10811</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5431</v>
+        <v>5778</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19173</v>
+        <v>20187</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009755861550137314</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004901203290531118</v>
+        <v>0.005213955651969026</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01730163677759268</v>
+        <v>0.01821647873448488</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1814,19 +1814,19 @@
         <v>10811</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5396</v>
+        <v>5594</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18847</v>
+        <v>20149</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007862357777327487</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003924075788642102</v>
+        <v>0.004067892124199871</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01370620948395636</v>
+        <v>0.01465305744233088</v>
       </c>
     </row>
     <row r="20">
@@ -1856,19 +1856,19 @@
         <v>1097358</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1088996</v>
+        <v>1087982</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1102738</v>
+        <v>1102391</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9902441384498627</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9826983632224077</v>
+        <v>0.9817835212655152</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9950987967094689</v>
+        <v>0.9947860443480318</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1298</v>
@@ -1877,19 +1877,19 @@
         <v>1364240</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1356204</v>
+        <v>1354902</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1369655</v>
+        <v>1369457</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9921376422226725</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9862937905160434</v>
+        <v>0.9853469425576697</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9960759242113578</v>
+        <v>0.9959321078758002</v>
       </c>
     </row>
     <row r="21">
@@ -1981,19 +1981,19 @@
         <v>22968</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14268</v>
+        <v>14346</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36625</v>
+        <v>35601</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006712042670909578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00416971970604538</v>
+        <v>0.004192488694208054</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01070298886527792</v>
+        <v>0.01040384826566289</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2002,19 +2002,19 @@
         <v>24778</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15703</v>
+        <v>15619</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36400</v>
+        <v>36021</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00699012118880901</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004429925439737088</v>
+        <v>0.004406097409838889</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01026849390584128</v>
+        <v>0.01016177732156002</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -2023,19 +2023,19 @@
         <v>47746</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34859</v>
+        <v>34260</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62656</v>
+        <v>62508</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006853534225062916</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005003721406998994</v>
+        <v>0.004917666973080871</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008993597315294442</v>
+        <v>0.008972458257775545</v>
       </c>
     </row>
     <row r="23">
@@ -2052,19 +2052,19 @@
         <v>3398942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3385285</v>
+        <v>3386309</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3407642</v>
+        <v>3407564</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9932879573290905</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9892970111347221</v>
+        <v>0.9895961517343372</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9958302802939547</v>
+        <v>0.9958075113057919</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3263</v>
@@ -2073,19 +2073,19 @@
         <v>3520007</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3508385</v>
+        <v>3508764</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3529082</v>
+        <v>3529166</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.993009878811191</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9897315060941587</v>
+        <v>0.9898382226784398</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9955700745602629</v>
+        <v>0.995593902590161</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6447</v>
@@ -2094,19 +2094,19 @@
         <v>6918948</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6904038</v>
+        <v>6904186</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6931835</v>
+        <v>6932434</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.993146465774937</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.991006402684705</v>
+        <v>0.9910275417422246</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9949962785930007</v>
+        <v>0.9950823330269192</v>
       </c>
     </row>
     <row r="24">
@@ -2440,19 +2440,19 @@
         <v>3863</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11983</v>
+        <v>12523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009002580437934275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002148621139335526</v>
+        <v>0.002159048473221459</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02792674320902746</v>
+        <v>0.02918398882710723</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2474,19 +2474,19 @@
         <v>3863</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12589</v>
+        <v>11132</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004977067169623147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001204418910869861</v>
+        <v>0.001191267400327295</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01621982094395407</v>
+        <v>0.01434225268824887</v>
       </c>
     </row>
     <row r="5">
@@ -2503,19 +2503,19 @@
         <v>425229</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417109</v>
+        <v>416569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428170</v>
+        <v>428166</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9909974195620658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9720732567909735</v>
+        <v>0.9708160111728931</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9978513788606644</v>
+        <v>0.9978409515267785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>332</v>
@@ -2537,19 +2537,19 @@
         <v>772284</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>763558</v>
+        <v>765015</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>775212</v>
+        <v>775222</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9950229328303769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9837801790560461</v>
+        <v>0.9856577473117514</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9987955810891301</v>
+        <v>0.9988087325996727</v>
       </c>
     </row>
     <row r="6">
@@ -2810,19 +2810,19 @@
         <v>2925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8559</v>
+        <v>8437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005603651220008799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001649264342674168</v>
+        <v>0.001655647695669693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01639918028430606</v>
+        <v>0.0161645715878499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2844,19 +2844,19 @@
         <v>2925</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7976</v>
+        <v>7793</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004250679014333537</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001255156838472037</v>
+        <v>0.001250149371158222</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0115920630137279</v>
+        <v>0.01132633845483155</v>
       </c>
     </row>
     <row r="11">
@@ -2873,19 +2873,19 @@
         <v>518989</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>513355</v>
+        <v>513477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>521053</v>
+        <v>521050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9943963487799912</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9836008197156929</v>
+        <v>0.9838354284121493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983507356573258</v>
+        <v>0.9983443523043304</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -2907,19 +2907,19 @@
         <v>685111</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>680060</v>
+        <v>680243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>687172</v>
+        <v>687176</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9957493209856665</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9884079369862718</v>
+        <v>0.988673661545168</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9987448431615279</v>
+        <v>0.9987498506288418</v>
       </c>
     </row>
     <row r="12">
@@ -3011,19 +3011,19 @@
         <v>11897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6318</v>
+        <v>6085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20617</v>
+        <v>19672</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01034869407295724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005495418494798461</v>
+        <v>0.005293225509082005</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01793327908197103</v>
+        <v>0.01711163923356654</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10055</v>
+        <v>8855</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003067282360218923</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01217485280417797</v>
+        <v>0.01072203245871579</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3053,19 +3053,19 @@
         <v>14430</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8072</v>
+        <v>8453</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24611</v>
+        <v>23511</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007304655179484908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004086185086162945</v>
+        <v>0.004278883409922534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01245812256003262</v>
+        <v>0.01190098878476918</v>
       </c>
     </row>
     <row r="14">
@@ -3082,19 +3082,19 @@
         <v>1137741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1129021</v>
+        <v>1129966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1143320</v>
+        <v>1143553</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9896513059270428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9820667209180289</v>
+        <v>0.9828883607664334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9945045815052015</v>
+        <v>0.9947067744909179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>796</v>
@@ -3103,7 +3103,7 @@
         <v>823343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>815821</v>
+        <v>817021</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>825876</v>
@@ -3112,7 +3112,7 @@
         <v>0.9969327176397811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.987825147195822</v>
+        <v>0.9892779675412842</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3124,19 +3124,19 @@
         <v>1961084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1950903</v>
+        <v>1952003</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1967442</v>
+        <v>1967061</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9926953448205151</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9875418774399674</v>
+        <v>0.9880990112152308</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.995913814913837</v>
+        <v>0.9957211165900774</v>
       </c>
     </row>
     <row r="15">
@@ -3228,19 +3228,19 @@
         <v>7470</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2981</v>
+        <v>3606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13884</v>
+        <v>14982</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01203403549403088</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004802973111815785</v>
+        <v>0.005809391977397764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02236869640269619</v>
+        <v>0.02413765115394824</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3249,19 +3249,19 @@
         <v>5617</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1209</v>
+        <v>2132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11908</v>
+        <v>12647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007608901444079415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001638125576779204</v>
+        <v>0.002887604862200976</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01613020307504837</v>
+        <v>0.01713135856113288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -3270,19 +3270,19 @@
         <v>13087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7285</v>
+        <v>7181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21497</v>
+        <v>22297</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009630099212241764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005360932445261556</v>
+        <v>0.005284440432606324</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01581852277830792</v>
+        <v>0.01640751743872159</v>
       </c>
     </row>
     <row r="17">
@@ -3299,19 +3299,19 @@
         <v>613236</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>606822</v>
+        <v>605724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>617725</v>
+        <v>617100</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9879659645059691</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.977631303597304</v>
+        <v>0.9758623488460519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9951970268881842</v>
+        <v>0.9941906080226023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>694</v>
@@ -3320,19 +3320,19 @@
         <v>732627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>726336</v>
+        <v>725597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>737035</v>
+        <v>736112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9923910985559206</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9838697969249517</v>
+        <v>0.9828686414388671</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9983618744232208</v>
+        <v>0.997112395137799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1283</v>
@@ -3341,19 +3341,19 @@
         <v>1345863</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1337453</v>
+        <v>1336653</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1351665</v>
+        <v>1351769</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9903699007877582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9841814772216927</v>
+        <v>0.9835924825612784</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9946390675547389</v>
+        <v>0.9947155595673939</v>
       </c>
     </row>
     <row r="18">
@@ -3458,19 +3458,19 @@
         <v>11033</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5610</v>
+        <v>5582</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20135</v>
+        <v>19847</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0101964427895936</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005184327672650646</v>
+        <v>0.005158831994514551</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01860897945119522</v>
+        <v>0.01834256309864694</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -3479,19 +3479,19 @@
         <v>11033</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5592</v>
+        <v>5443</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20581</v>
+        <v>19138</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008058023843081352</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004083981954849122</v>
+        <v>0.003975369608799192</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01503188334699994</v>
+        <v>0.01397771693593004</v>
       </c>
     </row>
     <row r="20">
@@ -3521,19 +3521,19 @@
         <v>1070992</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1061890</v>
+        <v>1062178</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1076415</v>
+        <v>1076443</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9898035572104064</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9813910205488047</v>
+        <v>0.981657436901353</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9948156723273494</v>
+        <v>0.9948411680054854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1254</v>
@@ -3542,19 +3542,19 @@
         <v>1358137</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1348589</v>
+        <v>1350032</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1363578</v>
+        <v>1363727</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9919419761569186</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9849681166529999</v>
+        <v>0.9860222830640699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9959160180451507</v>
+        <v>0.9960246303912007</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>26154</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17236</v>
+        <v>17283</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38518</v>
+        <v>38444</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007724913528311184</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00509074131283048</v>
+        <v>0.005104693559842914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01137669810983717</v>
+        <v>0.01135471344527856</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -3667,19 +3667,19 @@
         <v>19183</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11196</v>
+        <v>11420</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31364</v>
+        <v>30973</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005431885690628288</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003170222534446879</v>
+        <v>0.00323369983756848</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008881068522672812</v>
+        <v>0.008770121007258583</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -3688,19 +3688,19 @@
         <v>45338</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32965</v>
+        <v>32098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60044</v>
+        <v>59799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006554221709129455</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004765635312158379</v>
+        <v>0.004640280639082306</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008680232627274449</v>
+        <v>0.008644758266875807</v>
       </c>
     </row>
     <row r="23">
@@ -3717,19 +3717,19 @@
         <v>3359568</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3347204</v>
+        <v>3347278</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3368486</v>
+        <v>3368439</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9922750864716888</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9886233018901628</v>
+        <v>0.9886452865547216</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9949092586871695</v>
+        <v>0.9948953064401571</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3309</v>
@@ -3738,19 +3738,19 @@
         <v>3512413</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3500232</v>
+        <v>3500623</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3520400</v>
+        <v>3520176</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9945681143093718</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9911189314773273</v>
+        <v>0.9912298789927415</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9968297774655531</v>
+        <v>0.9967663001624316</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6507</v>
@@ -3759,19 +3759,19 @@
         <v>6871980</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6857274</v>
+        <v>6857519</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6884353</v>
+        <v>6885220</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9934457782908706</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9913197673727256</v>
+        <v>0.9913552417331239</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9952343646878417</v>
+        <v>0.9953597193609176</v>
       </c>
     </row>
     <row r="24">
@@ -4105,19 +4105,19 @@
         <v>7123</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3422</v>
+        <v>3494</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13468</v>
+        <v>12824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01293569057182979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006214257644162081</v>
+        <v>0.006346003701832734</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02445978618536571</v>
+        <v>0.02329006814135063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4126,19 +4126,19 @@
         <v>3407</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1290</v>
+        <v>1232</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7671</v>
+        <v>7377</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.006975904582864585</v>
+        <v>0.006975904582864584</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002640825466017759</v>
+        <v>0.00252197657460117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01570670966438911</v>
+        <v>0.01510475824857139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4147,19 +4147,19 @@
         <v>10530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6025</v>
+        <v>5750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17402</v>
+        <v>17356</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0101342057929828</v>
+        <v>0.01013420579298279</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005798368204215009</v>
+        <v>0.005533964993488583</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01674797462101261</v>
+        <v>0.01670446073628237</v>
       </c>
     </row>
     <row r="5">
@@ -4176,19 +4176,19 @@
         <v>543495</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>537150</v>
+        <v>537794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547196</v>
+        <v>547124</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9870643094281705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9755402138146344</v>
+        <v>0.9767099318586496</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9937857423558386</v>
+        <v>0.9936539962981673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>681</v>
@@ -4197,19 +4197,19 @@
         <v>485004</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>480740</v>
+        <v>481034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>487121</v>
+        <v>487179</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9930240954171355</v>
+        <v>0.9930240954171354</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9842932903356109</v>
+        <v>0.9848952417514287</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9973591745339823</v>
+        <v>0.9974780234253988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1226</v>
@@ -4218,19 +4218,19 @@
         <v>1028499</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1021627</v>
+        <v>1021673</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1033004</v>
+        <v>1033279</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9898657942070173</v>
+        <v>0.9898657942070171</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9832520253789879</v>
+        <v>0.9832955392637164</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9942016317957854</v>
+        <v>0.9944660350065114</v>
       </c>
     </row>
     <row r="6">
@@ -4322,19 +4322,19 @@
         <v>2588</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7076</v>
+        <v>7304</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.005355727221700003</v>
+        <v>0.005355727221700002</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001208982383455644</v>
+        <v>0.00120402047459131</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01464421686236616</v>
+        <v>0.01511547630809893</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001333156378514102</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006826429395439781</v>
+        <v>0.006831622540060228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4364,19 +4364,19 @@
         <v>3150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>988</v>
+        <v>591</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7759</v>
+        <v>7724</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003480967588797585</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001091707201427434</v>
+        <v>0.0006532002535435933</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008573830572986342</v>
+        <v>0.008534326089481703</v>
       </c>
     </row>
     <row r="8">
@@ -4393,19 +4393,19 @@
         <v>480624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>476136</v>
+        <v>475908</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482628</v>
+        <v>482630</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9946442727782999</v>
+        <v>0.9946442727783</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9853557831376338</v>
+        <v>0.9848845236919009</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9987910176165442</v>
+        <v>0.9987959795254088</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>587</v>
@@ -4414,7 +4414,7 @@
         <v>421219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>418902</v>
+        <v>418900</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>421781</v>
@@ -4423,7 +4423,7 @@
         <v>0.9986668436214858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9931735706045604</v>
+        <v>0.9931683774599398</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4435,19 +4435,19 @@
         <v>901843</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>897234</v>
+        <v>897269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>904005</v>
+        <v>904402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9965190324112024</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9914261694270138</v>
+        <v>0.9914656739105183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9989082927985727</v>
+        <v>0.9993467997464563</v>
       </c>
     </row>
     <row r="9">
@@ -4539,19 +4539,19 @@
         <v>6464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2982</v>
+        <v>3347</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11966</v>
+        <v>12655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0137310736054636</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006335268087982181</v>
+        <v>0.007110847032099023</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02542017493360007</v>
+        <v>0.02688222027511908</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3565</v>
+        <v>3156</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002952243219513133</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01901397611482471</v>
+        <v>0.01683132683124004</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -4581,19 +4581,19 @@
         <v>7017</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3456</v>
+        <v>3654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12724</v>
+        <v>13667</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.01066076608235624</v>
+        <v>0.01066076608235623</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005249864305280952</v>
+        <v>0.005551839306549916</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01933075556206753</v>
+        <v>0.02076248625016862</v>
       </c>
     </row>
     <row r="11">
@@ -4610,19 +4610,19 @@
         <v>464279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458777</v>
+        <v>458088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467761</v>
+        <v>467396</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9862689263945364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9745798250663998</v>
+        <v>0.973117779724881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9936647319120179</v>
+        <v>0.9928891529679009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -4631,7 +4631,7 @@
         <v>186943</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>183932</v>
+        <v>184341</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>187497</v>
@@ -4640,7 +4640,7 @@
         <v>0.9970477567804868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9809860238851765</v>
+        <v>0.9831686731687593</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4652,19 +4652,19 @@
         <v>651224</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645517</v>
+        <v>644574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>654785</v>
+        <v>654587</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9893392339176438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9806692444379322</v>
+        <v>0.9792375137498308</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9947501356947189</v>
+        <v>0.99444816069345</v>
       </c>
     </row>
     <row r="12">
@@ -4756,19 +4756,19 @@
         <v>11982</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6622</v>
+        <v>6603</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19910</v>
+        <v>20987</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01059921712059651</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005857769044614656</v>
+        <v>0.005840480258249905</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01761146953060572</v>
+        <v>0.01856480316148341</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4777,19 +4777,19 @@
         <v>5149</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2060</v>
+        <v>2309</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9887</v>
+        <v>9985</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005984203641708949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002393487003664992</v>
+        <v>0.002683780311203433</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01149050710187956</v>
+        <v>0.01160370736552674</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4798,19 +4798,19 @@
         <v>17132</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10350</v>
+        <v>10866</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27212</v>
+        <v>26252</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.008604633691992204</v>
+        <v>0.008604633691992205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005198646532847351</v>
+        <v>0.005457467930087627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01366757143512277</v>
+        <v>0.01318572711894665</v>
       </c>
     </row>
     <row r="14">
@@ -4827,19 +4827,19 @@
         <v>1118505</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1110577</v>
+        <v>1109500</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1123865</v>
+        <v>1123884</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9894007828794036</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.982388530469394</v>
+        <v>0.9814351968385165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9941422309553852</v>
+        <v>0.99415951974175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1221</v>
@@ -4848,19 +4848,19 @@
         <v>855340</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>850602</v>
+        <v>850504</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>858429</v>
+        <v>858180</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9940157963582911</v>
+        <v>0.994015796358291</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9885094928981208</v>
+        <v>0.9883962926344734</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9976065129963352</v>
+        <v>0.9973162196887966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2323</v>
@@ -4869,19 +4869,19 @@
         <v>1973844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1963764</v>
+        <v>1964724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1980626</v>
+        <v>1980110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9913953663080078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9863324285648772</v>
+        <v>0.9868142728810534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9948013534671527</v>
+        <v>0.9945425320699124</v>
       </c>
     </row>
     <row r="15">
@@ -4973,19 +4973,19 @@
         <v>3718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1326</v>
+        <v>1481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7822</v>
+        <v>7678</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006573090065628498</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002345252779245193</v>
+        <v>0.002618991993922391</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01383067136930666</v>
+        <v>0.01357550811144185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4994,19 +4994,19 @@
         <v>5019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2527</v>
+        <v>2549</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9289</v>
+        <v>9489</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.00605177257616037</v>
+        <v>0.006051772576160368</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003047132239598962</v>
+        <v>0.003072637902333732</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01119971221774425</v>
+        <v>0.01144051462794736</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -5015,19 +5015,19 @@
         <v>8737</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5450</v>
+        <v>5024</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14175</v>
+        <v>14519</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.006263131894027946</v>
+        <v>0.006263131894027945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003906508358451368</v>
+        <v>0.003601647480040735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01016100474507731</v>
+        <v>0.010408207048769</v>
       </c>
     </row>
     <row r="17">
@@ -5044,19 +5044,19 @@
         <v>561860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>557756</v>
+        <v>557900</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>564252</v>
+        <v>564097</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9934269099343714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9861693286306933</v>
+        <v>0.9864244918885582</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9976547472207549</v>
+        <v>0.9973810080060779</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1277</v>
@@ -5065,19 +5065,19 @@
         <v>824400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>820130</v>
+        <v>819930</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>826892</v>
+        <v>826870</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9939482274238397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9888002877822557</v>
+        <v>0.9885594853720525</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9969528677604009</v>
+        <v>0.9969273620976664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1816</v>
@@ -5086,19 +5086,19 @@
         <v>1386260</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1380822</v>
+        <v>1380478</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1389547</v>
+        <v>1389973</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9937368681059719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9898389952549224</v>
+        <v>0.9895917929512308</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9960934916415486</v>
+        <v>0.9963983525199591</v>
       </c>
     </row>
     <row r="18">
@@ -5203,19 +5203,19 @@
         <v>5589</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2635</v>
+        <v>2763</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9803</v>
+        <v>10273</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.006628666612582</v>
+        <v>0.006628666612581997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003125545471247137</v>
+        <v>0.003277189301213223</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01162657776277542</v>
+        <v>0.01218361324041674</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5224,19 +5224,19 @@
         <v>5589</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2662</v>
+        <v>2761</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10334</v>
+        <v>10586</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.00517321498721168</v>
+        <v>0.005173214987211679</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002464253873731607</v>
+        <v>0.002555430694528758</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009565016622648668</v>
+        <v>0.009797596696636688</v>
       </c>
     </row>
     <row r="20">
@@ -5266,19 +5266,19 @@
         <v>837606</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>833392</v>
+        <v>832922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>840560</v>
+        <v>840432</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9933713333874181</v>
+        <v>0.9933713333874179</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9883734222372246</v>
+        <v>0.9878163867595833</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9968744545287529</v>
+        <v>0.9967228106987868</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1259</v>
@@ -5287,19 +5287,19 @@
         <v>1074834</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1070089</v>
+        <v>1069837</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1077761</v>
+        <v>1077662</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9948267850127882</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9904349833773515</v>
+        <v>0.9902024033033633</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9975357461262682</v>
+        <v>0.9974445693054711</v>
       </c>
     </row>
     <row r="21">
@@ -5391,19 +5391,19 @@
         <v>31874</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21935</v>
+        <v>23821</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44062</v>
+        <v>44772</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009271525098085702</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006380431761318877</v>
+        <v>0.006929029880796268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01281680658899967</v>
+        <v>0.01302317393156313</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -5412,19 +5412,19 @@
         <v>20281</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14559</v>
+        <v>14456</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28434</v>
+        <v>28111</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005585833342815912</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004009878635984304</v>
+        <v>0.003981536896887959</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.007831337400915355</v>
+        <v>0.007742477589590596</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -5433,19 +5433,19 @@
         <v>52155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40874</v>
+        <v>40502</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65674</v>
+        <v>66398</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007378382074053202</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005782392645759443</v>
+        <v>0.005729795268333309</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009290823151947321</v>
+        <v>0.009393352923208753</v>
       </c>
     </row>
     <row r="23">
@@ -5462,19 +5462,19 @@
         <v>3405992</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3393804</v>
+        <v>3393094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3415931</v>
+        <v>3414045</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9907284749019142</v>
+        <v>0.9907284749019143</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9871831934110005</v>
+        <v>0.9869768260684367</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9936195682386814</v>
+        <v>0.9930709701192036</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5201</v>
@@ -5483,19 +5483,19 @@
         <v>3610511</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3602358</v>
+        <v>3602681</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3616233</v>
+        <v>3616336</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9944141666571841</v>
+        <v>0.9944141666571842</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9921686625990848</v>
+        <v>0.9922575224104098</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9959901213640157</v>
+        <v>0.996018463103112</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8455</v>
@@ -5504,19 +5504,19 @@
         <v>7016504</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7002985</v>
+        <v>7002261</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7027785</v>
+        <v>7028157</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9926216179259468</v>
+        <v>0.9926216179259469</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9907091768480526</v>
+        <v>0.9906066470767909</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9942176073542405</v>
+        <v>0.9942702047316667</v>
       </c>
     </row>
     <row r="24">
